--- a/data/trans_dic/P25_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 11,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,32</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,9</t>
+          <t>1,45; 15,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,59</t>
+          <t>0,0; 13,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,89</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,5</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,98</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,13</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,39</t>
+          <t>0,98; 8,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 7,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 9,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 7,95</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,2</t>
+          <t>0,0; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,93</t>
+          <t>1,5; 13,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,8</t>
+          <t>1,34; 11,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,44</t>
+          <t>1,86; 15,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,9</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,07</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,75</t>
+          <t>1,75; 20,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,55</t>
+          <t>0,0; 4,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 6,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 5,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 18,1</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 26,79</t>
+          <t>12,69; 30,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 21,5</t>
+          <t>8,31; 25,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 25,63</t>
+          <t>12,33; 30,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 21,87</t>
+          <t>12,1; 30,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,04; 19,02</t>
+          <t>11,85; 27,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 23,46</t>
+          <t>7,06; 21,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,74; 22,24</t>
+          <t>12,32; 28,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,68</t>
+          <t>12,72; 28,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,38</t>
+          <t>14,27; 25,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 19,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 26,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 25,51</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39,05%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,57; 50,72</t>
+          <t>24,83; 49,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 42,79</t>
+          <t>16,22; 37,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,37; 53,65</t>
+          <t>24,67; 48,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 37,64</t>
+          <t>26,23; 51,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 34,0</t>
+          <t>18,7; 44,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 41,95</t>
+          <t>17,17; 41,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,44; 42,46</t>
+          <t>19,04; 44,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 36,22</t>
+          <t>27,62; 55,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,51; 44,69</t>
+          <t>25,34; 43,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 35,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 41,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 47,64</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>65,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>60,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,86; 61,88</t>
+          <t>38,65; 69,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,74; 60,34</t>
+          <t>39,2; 69,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,6; 69,53</t>
+          <t>50,59; 79,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,6; 74,0</t>
+          <t>38,7; 69,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,6; 58,54</t>
+          <t>43,61; 73,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,65; 83,96</t>
+          <t>34,12; 63,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,62; 66,8</t>
+          <t>38,61; 70,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,61; 55,89</t>
+          <t>23,13; 56,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57,36; 76,42</t>
+          <t>45,51; 66,85</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,27; 62,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49,46; 72,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,65; 57,48</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,72; 22,12</t>
+          <t>14,61; 23,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,28</t>
+          <t>11,6; 19,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,52</t>
+          <t>14,55; 23,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,83</t>
+          <t>14,05; 23,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,6</t>
+          <t>12,57; 20,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 28,04</t>
+          <t>10,29; 17,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,58</t>
+          <t>12,02; 19,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 17,56</t>
+          <t>14,62; 23,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,13</t>
+          <t>14,74; 20,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 16,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 19,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 21,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16407</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14771</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9437</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5402</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5466</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8258</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2336</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12247</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7379</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11355</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2443; 26136</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19590</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20072</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 29683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9740</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13024</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16019</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3245; 29511</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2044; 20169</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2305; 25610</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2806; 31003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6880</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11029</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5254</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17936</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7687</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7633</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28965</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12227</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1976; 18307</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1847; 16110</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3292; 26962</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21339</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11177</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10874</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4203; 49877</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18616</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2366; 22784</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1891; 18481</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14498; 75487</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37628</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24459</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31642</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>39101</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40670</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24164</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33301</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42014</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78298</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48623</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64943</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81115</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23687; 57643</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13403; 40369</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19253; 47909</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24362; 61290</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25880; 59770</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13005; 38894</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20868; 47667</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26545; 60371</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57815; 104345</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32638; 67366</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46087; 85049</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56822; 104632</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56159</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34205</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43377</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>58657</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35284</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25491</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28069</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55264</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91443</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59697</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71446</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>113921</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39083; 77335</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21424; 49959</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30391; 59319</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40568; 79555</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21293; 50838</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16110; 38578</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17647; 41069</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37858; 76191</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>68728; 118228</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40807; 79298</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51972; 90148</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>86564; 138981</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>47195</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59297</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>75233</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81513</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51577</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>61840</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>88191</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>140513</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>98772</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>121137</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>163424</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42250; 76388</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34232; 61082</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45600; 71616</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53346; 95990</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>60002; 100599</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35877; 67193</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42703; 77850</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>48765; 119902</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>112376; 165058</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>77502; 119913</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>99294; 144633</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>120807; 200397</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>164658</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>118141</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>145537</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>192277</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>165530</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>110356</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>127425</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>206502</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>330188</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>228497</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>272962</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>398780</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>130246; 205089</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>87980; 148287</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>114812; 182041</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>146752; 246348</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>129125; 210383</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>86395; 145803</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>98804; 161968</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>161404; 262562</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>282832; 389943</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>187652; 271528</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>232652; 319812</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>333369; 471635</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>